--- a/HRMS/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/HRMS/src/test/resources/testdata/HrmsTestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -41,25 +41,28 @@
     <t xml:space="preserve">SyntaxStudents</t>
   </si>
   <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntax123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestNG</t>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiddleName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.13"/>
@@ -254,13 +257,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.9765625" defaultRowHeight="56" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="33.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="2" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -281,13 +285,19 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
